--- a/projects/test_building/input/Scenario_CoolingTechnology_EfficiencyClass_MarketShare.xlsx
+++ b/projects/test_building/input/Scenario_CoolingTechnology_EfficiencyClass_MarketShare.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Documents\code\3E\RenderNew\projects\test_building\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace_sia\RenderNew\projects\test_building\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-2895" yWindow="945" windowWidth="30240" windowHeight="17355"/>
+    <workbookView xWindow="-2900" yWindow="950" windowWidth="30240" windowHeight="17360"/>
   </bookViews>
   <sheets>
-    <sheet name="updated" sheetId="4" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -609,17 +609,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -756,7 +756,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>9</v>
       </c>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>9</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>9</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>9</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>9</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>9</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>9</v>
       </c>
